--- a/src/common/templates/14.Grading.xlsx
+++ b/src/common/templates/14.Grading.xlsx
@@ -8,13 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB0D7BFD-13BA-4B9E-899D-DA8849FDEDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3487CCB4-A85F-4A6A-A513-E603E186E5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="570" windowWidth="19395" windowHeight="14940" xr2:uid="{BFF3F8FC-A044-437F-94F2-8E981C52E26C}"/>
+    <workbookView xWindow="-18690" yWindow="1065" windowWidth="17340" windowHeight="13650" xr2:uid="{BFF3F8FC-A044-437F-94F2-8E981C52E26C}"/>
   </bookViews>
   <sheets>
     <sheet name="화성(Grading) 작업 일지" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="approver">'화성(Grading) 작업 일지'!$L$5</definedName>
+    <definedName name="cleanCheck">'화성(Grading) 작업 일지'!$G$44</definedName>
+    <definedName name="equipmentCheckResult">'화성(Grading) 작업 일지'!$C$41</definedName>
+    <definedName name="equipmentIssue">'화성(Grading) 작업 일지'!$K$41</definedName>
+    <definedName name="jigNumber">'화성(Grading) 작업 일지'!$G$41</definedName>
+    <definedName name="line">'화성(Grading) 작업 일지'!$C$9</definedName>
+    <definedName name="manufactureDate">'화성(Grading) 작업 일지'!$C$7</definedName>
+    <definedName name="plant">'화성(Grading) 작업 일지'!$G$9</definedName>
+    <definedName name="productionId">'화성(Grading) 작업 일지'!$G$7</definedName>
+    <definedName name="remark">'화성(Grading) 작업 일지'!$A$47</definedName>
+    <definedName name="reviewer">'화성(Grading) 작업 일지'!$K$5</definedName>
+    <definedName name="safety">'화성(Grading) 작업 일지'!$K$44</definedName>
+    <definedName name="shift">'화성(Grading) 작업 일지'!$K$9</definedName>
+    <definedName name="tempHumi">'화성(Grading) 작업 일지'!$C$44</definedName>
+    <definedName name="worker">'화성(Grading) 작업 일지'!$K$7</definedName>
+    <definedName name="writer">'화성(Grading) 작업 일지'!$J$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>화성(Grading) 작업 일지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -211,6 +229,10 @@
   </si>
   <si>
     <t>7. 비고 / 특이사항</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>호기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -440,6 +462,173 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -449,17 +638,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -471,9 +666,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,46 +690,61 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,21 +753,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,15 +765,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,7 +801,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -953,850 +1205,860 @@
   </sheetPr>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="12" width="9" style="53"/>
+    <col min="10" max="12" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18" t="s">
+      <c r="J15" s="20"/>
+      <c r="K15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="18"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="21"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="21"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+    </row>
+    <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+    </row>
+    <row r="23" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="64"/>
+      <c r="G23" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="65"/>
+      <c r="I23" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="66"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="68"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="33"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="68"/>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="B26" s="55"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="74"/>
+    </row>
+    <row r="27" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="14" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="16"/>
+      <c r="E32" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="14" t="s">
+      <c r="F32" s="20"/>
+      <c r="G32" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="16" t="s">
+      <c r="H32" s="16"/>
+      <c r="I32" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="14" t="s">
+      <c r="J32" s="20"/>
+      <c r="K32" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="15"/>
+      <c r="L32" s="16"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="21"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="21"/>
       <c r="J33" s="22"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="20"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="32"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="32"/>
       <c r="J34" s="33"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="39"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="40"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="41"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="14" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="38"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="39"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="40"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="41"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="14" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="38"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="39"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="40"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="41"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="8"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="24" t="s">
+      <c r="B41" s="28"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="24" t="s">
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="24"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="25"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="29"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="24" t="s">
+      <c r="B44" s="28"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="24" t="s">
+      <c r="F44" s="28"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J44" s="24"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="46"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="47"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="47"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="49"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="50"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="47"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="49"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="50"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="47"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="49"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="50"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="47"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="49"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="50"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="47"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="49"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="50"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="50"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="52"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="104">

--- a/src/common/templates/14.Grading.xlsx
+++ b/src/common/templates/14.Grading.xlsx
@@ -8,21 +8,58 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3487CCB4-A85F-4A6A-A513-E603E186E5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D811D78E-88D8-4AC2-AB68-C4DD3D3EF124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18690" yWindow="1065" windowWidth="17340" windowHeight="13650" xr2:uid="{BFF3F8FC-A044-437F-94F2-8E981C52E26C}"/>
+    <workbookView xWindow="-16830" yWindow="360" windowWidth="16275" windowHeight="14835" xr2:uid="{BFF3F8FC-A044-437F-94F2-8E981C52E26C}"/>
   </bookViews>
   <sheets>
     <sheet name="화성(Grading) 작업 일지" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="approver">'화성(Grading) 작업 일지'!$L$5</definedName>
+    <definedName name="cellNumberRange">'화성(Grading) 작업 일지'!$C$12</definedName>
     <definedName name="cleanCheck">'화성(Grading) 작업 일지'!$G$44</definedName>
     <definedName name="equipmentCheckResult">'화성(Grading) 작업 일지'!$C$41</definedName>
     <definedName name="equipmentIssue">'화성(Grading) 작업 일지'!$K$41</definedName>
+    <definedName name="grading1Quantity">'화성(Grading) 작업 일지'!$C$25</definedName>
+    <definedName name="grading1UnitNumber">'화성(Grading) 작업 일지'!$C$23</definedName>
+    <definedName name="grading2Quantity">'화성(Grading) 작업 일지'!$E$25</definedName>
+    <definedName name="grading2UnitNumber">'화성(Grading) 작업 일지'!$E$23</definedName>
+    <definedName name="grading3Quantity">'화성(Grading) 작업 일지'!$G$25</definedName>
+    <definedName name="grading3UnitNumber">'화성(Grading) 작업 일지'!$G$23</definedName>
+    <definedName name="grading4Quantity">'화성(Grading) 작업 일지'!$I$25</definedName>
+    <definedName name="grading4UnitNumber">'화성(Grading) 작업 일지'!$I$23</definedName>
+    <definedName name="grading5Quantity">'화성(Grading) 작업 일지'!$K$25</definedName>
+    <definedName name="grading5UnitNumber">'화성(Grading) 작업 일지'!$K$23</definedName>
+    <definedName name="gradingAppliedCurrent">'화성(Grading) 작업 일지'!$I$34</definedName>
+    <definedName name="gradingDefectQuantity">'화성(Grading) 작업 일지'!$G$21</definedName>
+    <definedName name="gradingDefectRate">'화성(Grading) 작업 일지'!$K$21</definedName>
+    <definedName name="gradingDiscardQuantity">'화성(Grading) 작업 일지'!$I$21</definedName>
+    <definedName name="gradingGoodQuantity">'화성(Grading) 작업 일지'!$E$21</definedName>
+    <definedName name="gradingInputQuantity">'화성(Grading) 작업 일지'!$C$21</definedName>
+    <definedName name="gradingLowerVoltage">'화성(Grading) 작업 일지'!$E$34</definedName>
+    <definedName name="gradingTemperature">'화성(Grading) 작업 일지'!$K$34</definedName>
+    <definedName name="gradingUpperVoltage">'화성(Grading) 작업 일지'!$G$34</definedName>
+    <definedName name="gradingVoltageCondition">'화성(Grading) 작업 일지'!$C$34</definedName>
     <definedName name="jigNumber">'화성(Grading) 작업 일지'!$G$41</definedName>
     <definedName name="line">'화성(Grading) 작업 일지'!$C$9</definedName>
+    <definedName name="lot1Range">'화성(Grading) 작업 일지'!$C$19</definedName>
+    <definedName name="lot2Range">'화성(Grading) 작업 일지'!$C$29</definedName>
     <definedName name="manufactureDate">'화성(Grading) 작업 일지'!$C$7</definedName>
+    <definedName name="ocv2DefectQuantity">'화성(Grading) 작업 일지'!$G$17</definedName>
+    <definedName name="ocv2DefectRate">'화성(Grading) 작업 일지'!$K$17</definedName>
+    <definedName name="ocv2DiscardQuantity">'화성(Grading) 작업 일지'!$I$17</definedName>
+    <definedName name="ocv2GoodQuantity">'화성(Grading) 작업 일지'!$E$17</definedName>
+    <definedName name="ocv2InputQuantity">'화성(Grading) 작업 일지'!$C$17</definedName>
+    <definedName name="ocv2MeasurementEquipmentName">'화성(Grading) 작업 일지'!$C$36</definedName>
+    <definedName name="ocv2VoltageSpec">'화성(Grading) 작업 일지'!$G$36</definedName>
+    <definedName name="ocv3DefectQuantity">'화성(Grading) 작업 일지'!$G$27</definedName>
+    <definedName name="ocv3DefectRate">'화성(Grading) 작업 일지'!$K$27</definedName>
+    <definedName name="ocv3DiscardQuantity">'화성(Grading) 작업 일지'!$I$27</definedName>
+    <definedName name="ocv3GoodQuantity">'화성(Grading) 작업 일지'!$E$27</definedName>
+    <definedName name="ocv3InputQuantity">'화성(Grading) 작업 일지'!$C$27</definedName>
+    <definedName name="ocv3MeasurementEquipmentName">'화성(Grading) 작업 일지'!$C$38</definedName>
+    <definedName name="ocv3VoltageSpec">'화성(Grading) 작업 일지'!$G$38</definedName>
     <definedName name="plant">'화성(Grading) 작업 일지'!$G$9</definedName>
     <definedName name="productionId">'화성(Grading) 작업 일지'!$G$7</definedName>
     <definedName name="remark">'화성(Grading) 작업 일지'!$A$47</definedName>
@@ -489,11 +526,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="double">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -504,7 +541,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="double">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -517,7 +554,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="double">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -529,10 +566,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="double">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="double">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -541,7 +578,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -555,7 +592,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="double">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -567,7 +604,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -578,12 +615,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -594,7 +631,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -609,7 +646,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -618,13 +655,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="double">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -732,39 +769,102 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -799,69 +899,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1205,8 +1242,8 @@
   </sheetPr>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23:L24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1557,100 +1594,100 @@
       <c r="L21" s="28"/>
     </row>
     <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-    </row>
-    <row r="23" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="62" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="42"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64" t="s">
+      <c r="D23" s="50"/>
+      <c r="E23" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="65" t="s">
+      <c r="F23" s="53"/>
+      <c r="G23" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="65"/>
-      <c r="I23" s="64" t="s">
+      <c r="H23" s="31"/>
+      <c r="I23" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65" t="s">
+      <c r="J23" s="53"/>
+      <c r="K23" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="66"/>
+      <c r="L23" s="32"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="35"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="68"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="34"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="68"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="74"/>
-    </row>
-    <row r="27" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="45"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="41"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
@@ -1675,12 +1712,12 @@
       <c r="D29" s="25"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
@@ -1689,12 +1726,12 @@
       <c r="D30" s="27"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
@@ -1757,94 +1794,94 @@
         <v>23</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="58"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="41"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="60"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="16"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F36" s="16"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="39"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="58"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="41"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="17"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="41"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="60"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="16"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F38" s="16"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="39"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="58"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="41"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="17"/>
       <c r="F39" s="18"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="41"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="60"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
@@ -1867,7 +1904,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="28"/>
-      <c r="C41" s="42"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="29"/>
       <c r="E41" s="28" t="s">
         <v>37</v>
@@ -1879,7 +1916,7 @@
         <v>38</v>
       </c>
       <c r="J41" s="28"/>
-      <c r="K41" s="42"/>
+      <c r="K41" s="63"/>
       <c r="L41" s="29"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -1963,102 +2000,102 @@
       <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="45"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="47"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="68"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="48"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="50"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="71"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="50"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="71"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="50"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="71"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="48"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="50"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="71"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="48"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="50"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="71"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="51"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="53"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="104">

--- a/src/common/templates/14.Grading.xlsx
+++ b/src/common/templates/14.Grading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D811D78E-88D8-4AC2-AB68-C4DD3D3EF124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2C2162-3630-415B-B61A-AA159E355A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16830" yWindow="360" windowWidth="16275" windowHeight="14835" xr2:uid="{BFF3F8FC-A044-437F-94F2-8E981C52E26C}"/>
+    <workbookView xWindow="1080" yWindow="180" windowWidth="21435" windowHeight="14940" xr2:uid="{BFF3F8FC-A044-437F-94F2-8E981C52E26C}"/>
   </bookViews>
   <sheets>
     <sheet name="화성(Grading) 작업 일지" sheetId="1" r:id="rId1"/>
@@ -675,7 +675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,15 +685,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -703,6 +694,186 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,184 +892,19 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1242,8 +1248,8 @@
   </sheetPr>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:L8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q14" activeCellId="1" sqref="G23:H24 Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1252,17 +1258,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1274,918 +1280,831 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="28"/>
+      <c r="K9" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="73"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="68"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="34"/>
+      <c r="G15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="19" t="s">
+      <c r="H15" s="19"/>
+      <c r="I15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="23" t="s">
+      <c r="J15" s="34"/>
+      <c r="K15" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="23"/>
+      <c r="L15" s="72"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="38"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="40"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="49" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="53" t="s">
+      <c r="D23" s="63"/>
+      <c r="E23" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="31" t="s">
+      <c r="F23" s="65"/>
+      <c r="G23" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="53" t="s">
+      <c r="H23" s="46"/>
+      <c r="I23" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="53"/>
-      <c r="K23" s="31" t="s">
+      <c r="J23" s="65"/>
+      <c r="K23" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="32"/>
+      <c r="L23" s="47"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="34"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="48"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="34"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="48"/>
     </row>
     <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="21"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="41"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="38"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="40"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="8"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="19" t="s">
+      <c r="D32" s="19"/>
+      <c r="E32" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="15" t="s">
+      <c r="F32" s="34"/>
+      <c r="G32" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="19" t="s">
+      <c r="H32" s="19"/>
+      <c r="I32" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="20"/>
-      <c r="K32" s="15" t="s">
+      <c r="J32" s="34"/>
+      <c r="K32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="16"/>
+      <c r="L32" s="19"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="18"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="21"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="58"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="60"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="25"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="15" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="58"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="23"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="60"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="25"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="15" t="s">
+      <c r="B38" s="19"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="58"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="60"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="25"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="8"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="28" t="s">
+      <c r="B41" s="15"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="28" t="s">
+      <c r="F41" s="15"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="28"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="29"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="16"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="8"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="28" t="s">
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="28" t="s">
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J44" s="28"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="8"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="66"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="68"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="69"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="71"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="11"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="71"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="11"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="69"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="71"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="11"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="69"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="71"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="11"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="69"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="71"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="11"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="72"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="73"/>
-      <c r="L53" s="74"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="A47:L53"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:H45"/>
-    <mergeCell ref="I44:J45"/>
-    <mergeCell ref="K44:L45"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="G41:H42"/>
-    <mergeCell ref="I41:J42"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:L37"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:L39"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="I34:J35"/>
-    <mergeCell ref="K34:L35"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="I32:J33"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="K27:L28"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="A21:B26"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:L13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:L16"/>
+  <mergeCells count="96">
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="C9:D10"/>
@@ -2203,6 +2122,85 @@
     <mergeCell ref="E7:F8"/>
     <mergeCell ref="G7:H8"/>
     <mergeCell ref="I7:J8"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:L13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="C19:L20"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="A21:B26"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="C29:L30"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="I32:J33"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="G41:H42"/>
+    <mergeCell ref="I41:J42"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:L37"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:L39"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="A47:L53"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:H45"/>
+    <mergeCell ref="I44:J45"/>
+    <mergeCell ref="K44:L45"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/common/templates/14.Grading.xlsx
+++ b/src/common/templates/14.Grading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2C2162-3630-415B-B61A-AA159E355A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A384924-DB8A-43CA-960A-59B5DD398C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="180" windowWidth="21435" windowHeight="14940" xr2:uid="{BFF3F8FC-A044-437F-94F2-8E981C52E26C}"/>
+    <workbookView xWindow="2700" yWindow="285" windowWidth="24210" windowHeight="14940" xr2:uid="{BFF3F8FC-A044-437F-94F2-8E981C52E26C}"/>
   </bookViews>
   <sheets>
     <sheet name="화성(Grading) 작업 일지" sheetId="1" r:id="rId1"/>
@@ -18,55 +18,60 @@
   <definedNames>
     <definedName name="approver">'화성(Grading) 작업 일지'!$L$5</definedName>
     <definedName name="cellNumberRange">'화성(Grading) 작업 일지'!$C$12</definedName>
-    <definedName name="cleanCheck">'화성(Grading) 작업 일지'!$G$44</definedName>
-    <definedName name="equipmentCheckResult">'화성(Grading) 작업 일지'!$C$41</definedName>
-    <definedName name="equipmentIssue">'화성(Grading) 작업 일지'!$K$41</definedName>
+    <definedName name="cleanCheck">'화성(Grading) 작업 일지'!$G$46</definedName>
+    <definedName name="equipmentCheckResult">'화성(Grading) 작업 일지'!$C$43</definedName>
+    <definedName name="equipmentIssue">'화성(Grading) 작업 일지'!$K$43</definedName>
+    <definedName name="grading1CellNumberRange">'화성(Grading) 작업 일지'!$C$27</definedName>
     <definedName name="grading1Quantity">'화성(Grading) 작업 일지'!$C$25</definedName>
     <definedName name="grading1UnitNumber">'화성(Grading) 작업 일지'!$C$23</definedName>
+    <definedName name="grading2CellNumberRange">'화성(Grading) 작업 일지'!$E$27</definedName>
     <definedName name="grading2Quantity">'화성(Grading) 작업 일지'!$E$25</definedName>
     <definedName name="grading2UnitNumber">'화성(Grading) 작업 일지'!$E$23</definedName>
+    <definedName name="grading3CellNumberRange">'화성(Grading) 작업 일지'!$G$27</definedName>
     <definedName name="grading3Quantity">'화성(Grading) 작업 일지'!$G$25</definedName>
     <definedName name="grading3UnitNumber">'화성(Grading) 작업 일지'!$G$23</definedName>
+    <definedName name="grading4CellNumberRange">'화성(Grading) 작업 일지'!$I$27</definedName>
     <definedName name="grading4Quantity">'화성(Grading) 작업 일지'!$I$25</definedName>
     <definedName name="grading4UnitNumber">'화성(Grading) 작업 일지'!$I$23</definedName>
+    <definedName name="grading5CellNumberRange">'화성(Grading) 작업 일지'!$K$27</definedName>
     <definedName name="grading5Quantity">'화성(Grading) 작업 일지'!$K$25</definedName>
     <definedName name="grading5UnitNumber">'화성(Grading) 작업 일지'!$K$23</definedName>
-    <definedName name="gradingAppliedCurrent">'화성(Grading) 작업 일지'!$I$34</definedName>
+    <definedName name="gradingAppliedCurrent">'화성(Grading) 작업 일지'!$I$36</definedName>
     <definedName name="gradingDefectQuantity">'화성(Grading) 작업 일지'!$G$21</definedName>
     <definedName name="gradingDefectRate">'화성(Grading) 작업 일지'!$K$21</definedName>
     <definedName name="gradingDiscardQuantity">'화성(Grading) 작업 일지'!$I$21</definedName>
     <definedName name="gradingGoodQuantity">'화성(Grading) 작업 일지'!$E$21</definedName>
     <definedName name="gradingInputQuantity">'화성(Grading) 작업 일지'!$C$21</definedName>
-    <definedName name="gradingLowerVoltage">'화성(Grading) 작업 일지'!$E$34</definedName>
-    <definedName name="gradingTemperature">'화성(Grading) 작업 일지'!$K$34</definedName>
-    <definedName name="gradingUpperVoltage">'화성(Grading) 작업 일지'!$G$34</definedName>
-    <definedName name="gradingVoltageCondition">'화성(Grading) 작업 일지'!$C$34</definedName>
-    <definedName name="jigNumber">'화성(Grading) 작업 일지'!$G$41</definedName>
+    <definedName name="gradingLowerVoltage">'화성(Grading) 작업 일지'!$E$36</definedName>
+    <definedName name="gradingTemperature">'화성(Grading) 작업 일지'!$K$36</definedName>
+    <definedName name="gradingUpperVoltage">'화성(Grading) 작업 일지'!$G$36</definedName>
+    <definedName name="gradingVoltageCondition">'화성(Grading) 작업 일지'!$C$36</definedName>
+    <definedName name="jigNumber">'화성(Grading) 작업 일지'!$G$43</definedName>
     <definedName name="line">'화성(Grading) 작업 일지'!$C$9</definedName>
     <definedName name="lot1Range">'화성(Grading) 작업 일지'!$C$19</definedName>
-    <definedName name="lot2Range">'화성(Grading) 작업 일지'!$C$29</definedName>
+    <definedName name="lot2Range">'화성(Grading) 작업 일지'!$C$31</definedName>
     <definedName name="manufactureDate">'화성(Grading) 작업 일지'!$C$7</definedName>
     <definedName name="ocv2DefectQuantity">'화성(Grading) 작업 일지'!$G$17</definedName>
     <definedName name="ocv2DefectRate">'화성(Grading) 작업 일지'!$K$17</definedName>
     <definedName name="ocv2DiscardQuantity">'화성(Grading) 작업 일지'!$I$17</definedName>
     <definedName name="ocv2GoodQuantity">'화성(Grading) 작업 일지'!$E$17</definedName>
     <definedName name="ocv2InputQuantity">'화성(Grading) 작업 일지'!$C$17</definedName>
-    <definedName name="ocv2MeasurementEquipmentName">'화성(Grading) 작업 일지'!$C$36</definedName>
-    <definedName name="ocv2VoltageSpec">'화성(Grading) 작업 일지'!$G$36</definedName>
-    <definedName name="ocv3DefectQuantity">'화성(Grading) 작업 일지'!$G$27</definedName>
-    <definedName name="ocv3DefectRate">'화성(Grading) 작업 일지'!$K$27</definedName>
-    <definedName name="ocv3DiscardQuantity">'화성(Grading) 작업 일지'!$I$27</definedName>
-    <definedName name="ocv3GoodQuantity">'화성(Grading) 작업 일지'!$E$27</definedName>
-    <definedName name="ocv3InputQuantity">'화성(Grading) 작업 일지'!$C$27</definedName>
-    <definedName name="ocv3MeasurementEquipmentName">'화성(Grading) 작업 일지'!$C$38</definedName>
-    <definedName name="ocv3VoltageSpec">'화성(Grading) 작업 일지'!$G$38</definedName>
+    <definedName name="ocv2MeasurementEquipmentName">'화성(Grading) 작업 일지'!$C$38</definedName>
+    <definedName name="ocv2VoltageSpec">'화성(Grading) 작업 일지'!$G$38</definedName>
+    <definedName name="ocv3DefectQuantity">'화성(Grading) 작업 일지'!$G$29</definedName>
+    <definedName name="ocv3DefectRate">'화성(Grading) 작업 일지'!$K$29</definedName>
+    <definedName name="ocv3DiscardQuantity">'화성(Grading) 작업 일지'!$I$29</definedName>
+    <definedName name="ocv3GoodQuantity">'화성(Grading) 작업 일지'!$E$29</definedName>
+    <definedName name="ocv3InputQuantity">'화성(Grading) 작업 일지'!$C$29</definedName>
+    <definedName name="ocv3MeasurementEquipmentName">'화성(Grading) 작업 일지'!$C$40</definedName>
+    <definedName name="ocv3VoltageSpec">'화성(Grading) 작업 일지'!$G$40</definedName>
     <definedName name="plant">'화성(Grading) 작업 일지'!$G$9</definedName>
     <definedName name="productionId">'화성(Grading) 작업 일지'!$G$7</definedName>
-    <definedName name="remark">'화성(Grading) 작업 일지'!$A$47</definedName>
+    <definedName name="remark">'화성(Grading) 작업 일지'!$A$49</definedName>
     <definedName name="reviewer">'화성(Grading) 작업 일지'!$K$5</definedName>
-    <definedName name="safety">'화성(Grading) 작업 일지'!$K$44</definedName>
+    <definedName name="safety">'화성(Grading) 작업 일지'!$K$46</definedName>
     <definedName name="shift">'화성(Grading) 작업 일지'!$K$9</definedName>
-    <definedName name="tempHumi">'화성(Grading) 작업 일지'!$C$44</definedName>
+    <definedName name="tempHumi">'화성(Grading) 작업 일지'!$C$46</definedName>
     <definedName name="worker">'화성(Grading) 작업 일지'!$K$7</definedName>
     <definedName name="writer">'화성(Grading) 작업 일지'!$J$5</definedName>
   </definedNames>
@@ -359,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -637,30 +642,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -675,7 +690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,6 +700,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +718,168 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,190 +907,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1246,10 +1282,10 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q14" activeCellId="1" sqref="G23:H24 Q14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1258,17 +1294,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1280,848 +1316,933 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="28" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="28" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="28" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="28" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="73" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="73"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="68"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="71"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="33" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="33" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="72" t="s">
+      <c r="J15" s="20"/>
+      <c r="K15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="72"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="38"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="40"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
     </row>
     <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="62" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="65" t="s">
+      <c r="D23" s="47"/>
+      <c r="E23" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="46" t="s">
+      <c r="F23" s="50"/>
+      <c r="G23" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="65" t="s">
+      <c r="H23" s="33"/>
+      <c r="I23" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="65"/>
-      <c r="K23" s="46" t="s">
+      <c r="J23" s="50"/>
+      <c r="K23" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="47"/>
+      <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="48"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="36"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="48"/>
-    </row>
-    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="35"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="54"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="36"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="41"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="79"/>
+    </row>
+    <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="21"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="83"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="38"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="40"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="29"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="32"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="18" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="33" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="18" t="s">
+      <c r="F34" s="20"/>
+      <c r="G34" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="33" t="s">
+      <c r="H34" s="16"/>
+      <c r="I34" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="34"/>
-      <c r="K32" s="18" t="s">
+      <c r="J34" s="20"/>
+      <c r="K34" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="19"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="21"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="23"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="25"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="55"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="57"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="18" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="23"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="25"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+      <c r="F38" s="16"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="55"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="57"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="18" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="23"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="25"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="F40" s="16"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="55"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="57"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="15" t="s">
+      <c r="B43" s="25"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="15" t="s">
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="15"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="16"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="J43" s="25"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="15" t="s">
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="15" t="s">
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J44" s="15"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="J46" s="25"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="11"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="11"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="65"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="11"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="68"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="11"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="68"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="11"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="68"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="14"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="68"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="66"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="68"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="69"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
+  <mergeCells count="101">
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="A49:L55"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:H47"/>
+    <mergeCell ref="I46:J47"/>
+    <mergeCell ref="K46:L47"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:L39"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:L41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="G43:H44"/>
+    <mergeCell ref="I43:J44"/>
+    <mergeCell ref="K43:L44"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="C31:L32"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="I36:J37"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="A21:B28"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="C19:L20"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
     <mergeCell ref="A11:L11"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="C12:L13"/>
@@ -2132,75 +2253,23 @@
     <mergeCell ref="G15:H16"/>
     <mergeCell ref="I15:J16"/>
     <mergeCell ref="K15:L16"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="C19:L20"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="A21:B26"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="K27:L28"/>
-    <mergeCell ref="C29:L30"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="I34:J35"/>
-    <mergeCell ref="K34:L35"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="I32:J33"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="G41:H42"/>
-    <mergeCell ref="I41:J42"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:L37"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:L39"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="A47:L53"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:H45"/>
-    <mergeCell ref="I44:J45"/>
-    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/common/templates/14.Grading.xlsx
+++ b/src/common/templates/14.Grading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A384924-DB8A-43CA-960A-59B5DD398C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDCF55F-4C4F-4368-835A-AF0427D6AFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="285" windowWidth="24210" windowHeight="14940" xr2:uid="{BFF3F8FC-A044-437F-94F2-8E981C52E26C}"/>
+    <workbookView xWindow="6900" yWindow="480" windowWidth="13200" windowHeight="14940" xr2:uid="{BFF3F8FC-A044-437F-94F2-8E981C52E26C}"/>
   </bookViews>
   <sheets>
     <sheet name="화성(Grading) 작업 일지" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>화성(Grading) 작업 일지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -275,6 +275,22 @@
   </si>
   <si>
     <t>호기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25°C / 50%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상없음</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -700,13 +716,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -718,6 +761,177 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -736,211 +950,13 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1284,8 +1300,8 @@
   </sheetPr>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1294,17 +1310,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1316,859 +1332,946 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4" t="s">
+      <c r="F7" s="48"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4" t="s">
+      <c r="F9" s="48"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="48"/>
+      <c r="K9" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="83"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="77"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="80"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="54"/>
+      <c r="G15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="19" t="s">
+      <c r="H15" s="30"/>
+      <c r="I15" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="23" t="s">
+      <c r="J15" s="54"/>
+      <c r="K15" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="23"/>
+      <c r="L15" s="81"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="44"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="47"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
     </row>
     <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="41"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="46" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="50" t="s">
+      <c r="D23" s="63"/>
+      <c r="E23" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="33" t="s">
+      <c r="F23" s="65"/>
+      <c r="G23" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="50" t="s">
+      <c r="H23" s="66"/>
+      <c r="I23" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="50"/>
-      <c r="K23" s="33" t="s">
+      <c r="J23" s="65"/>
+      <c r="K23" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="34"/>
+      <c r="L23" s="72"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="36"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="73"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="36"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="73"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="36"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="73"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="79"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="83"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="29"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="44"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="32"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="47"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="15" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="19" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="15" t="s">
+      <c r="F34" s="54"/>
+      <c r="G34" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="19" t="s">
+      <c r="H34" s="30"/>
+      <c r="I34" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="15" t="s">
+      <c r="J34" s="54"/>
+      <c r="K34" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="16"/>
+      <c r="L34" s="30"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="18"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="32"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="55"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="34"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="57"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="15" t="s">
+      <c r="B38" s="30"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="55"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="34"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="57"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="36"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="15" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="55"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="34"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="57"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="36"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="8"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="17"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="25" t="s">
+      <c r="B43" s="27"/>
+      <c r="C43" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="25" t="s">
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="25"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="26"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L43" s="28"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="8"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="17"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="25" t="s">
+      <c r="B46" s="27"/>
+      <c r="C46" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="28"/>
+      <c r="E46" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="25" t="s">
+      <c r="F46" s="27"/>
+      <c r="G46" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="28"/>
+      <c r="I46" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L46" s="28"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="8"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="17"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="63"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="65"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="20"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="66"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="68"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="23"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="66"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="68"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="23"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="66"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="68"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="23"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="66"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="68"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="23"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="66"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="68"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="23"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="69"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="71"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:L13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="A21:B28"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="C19:L20"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="G43:H44"/>
+    <mergeCell ref="I43:J44"/>
+    <mergeCell ref="K43:L44"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="C31:L32"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="I36:J37"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:D30"/>
     <mergeCell ref="C27:D28"/>
     <mergeCell ref="E27:F28"/>
     <mergeCell ref="G27:H28"/>
@@ -2193,83 +2296,6 @@
     <mergeCell ref="G40:L41"/>
     <mergeCell ref="A42:L42"/>
     <mergeCell ref="A43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="G43:H44"/>
-    <mergeCell ref="I43:J44"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="C31:L32"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="I36:J37"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="I34:J35"/>
-    <mergeCell ref="K34:L35"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="A21:B28"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="C19:L20"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:L13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/common/templates/14.Grading.xlsx
+++ b/src/common/templates/14.Grading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDCF55F-4C4F-4368-835A-AF0427D6AFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D629E4-AD3D-4F17-8AC0-6697B7AA5B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="480" windowWidth="13200" windowHeight="14940" xr2:uid="{BFF3F8FC-A044-437F-94F2-8E981C52E26C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF3F8FC-A044-437F-94F2-8E981C52E26C}"/>
   </bookViews>
   <sheets>
     <sheet name="화성(Grading) 작업 일지" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -534,19 +534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -667,15 +654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -697,6 +675,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -706,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,40 +705,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -761,6 +720,174 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,175 +915,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1298,10 +1272,10 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:I5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1310,17 +1284,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1332,922 +1306,894 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="48" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="48" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="48" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="48" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="83" t="s">
+      <c r="J9" s="8"/>
+      <c r="K9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="83"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="77"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="80"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="53" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="29" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="53" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="81" t="s">
+      <c r="J15" s="20"/>
+      <c r="K15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="81"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="48" t="s">
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="44"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="53" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-    </row>
-    <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="62" t="s">
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="65" t="s">
+      <c r="D23" s="49"/>
+      <c r="E23" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66" t="s">
+      <c r="F23" s="50"/>
+      <c r="G23" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="65" t="s">
+      <c r="H23" s="36"/>
+      <c r="I23" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="65"/>
-      <c r="K23" s="66" t="s">
+      <c r="J23" s="50"/>
+      <c r="K23" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="72"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="73"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="73"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="73"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="13"/>
-    </row>
-    <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="55"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="48" t="s">
+      <c r="L23" s="37"/>
+      <c r="M23" s="75"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="75"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="75"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="75"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="75"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="21"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="75"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="48" t="s">
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="44"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="47"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="32"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="35"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="17"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="29" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="53" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="54"/>
-      <c r="G34" s="29" t="s">
+      <c r="F34" s="20"/>
+      <c r="G34" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="53" t="s">
+      <c r="H34" s="16"/>
+      <c r="I34" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="54"/>
-      <c r="K34" s="29" t="s">
+      <c r="J34" s="20"/>
+      <c r="K34" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="30"/>
+      <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="32"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="34"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="53"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="36"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="55"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="29" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="34"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="53"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="36"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="55"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="29" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="34"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="53"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="36"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="55"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="17"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="39" t="s">
+      <c r="B43" s="29"/>
+      <c r="C43" s="51" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="28"/>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="27"/>
+      <c r="F43" s="29"/>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
-      <c r="I43" s="27" t="s">
+      <c r="I43" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="27"/>
-      <c r="K43" s="39" t="s">
+      <c r="J43" s="29"/>
+      <c r="K43" s="51" t="s">
         <v>47</v>
       </c>
       <c r="L43" s="28"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
       <c r="K44" s="28"/>
       <c r="L44" s="28"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="17"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="27"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="28"/>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="27"/>
+      <c r="F46" s="29"/>
       <c r="G46" s="28" t="s">
         <v>46</v>
       </c>
       <c r="H46" s="28"/>
-      <c r="I46" s="27" t="s">
+      <c r="I46" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="J46" s="27"/>
+      <c r="J46" s="29"/>
       <c r="K46" s="28" t="s">
         <v>48</v>
       </c>
       <c r="L46" s="28"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
       <c r="K47" s="28"/>
       <c r="L47" s="28"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="17"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="20"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="66"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="23"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="69"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="23"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="69"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="23"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="69"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="23"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="69"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="23"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="69"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="26"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
+      <c r="L55" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:L13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="A21:B28"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="C19:L20"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:L39"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:L41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="A49:L55"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:H47"/>
+    <mergeCell ref="I46:J47"/>
+    <mergeCell ref="K46:L47"/>
     <mergeCell ref="C43:D44"/>
     <mergeCell ref="E43:F44"/>
     <mergeCell ref="G43:H44"/>
@@ -2272,30 +2218,64 @@
     <mergeCell ref="A31:B32"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:J24"/>
     <mergeCell ref="C27:D28"/>
     <mergeCell ref="E27:F28"/>
     <mergeCell ref="G27:H28"/>
     <mergeCell ref="I27:J28"/>
+    <mergeCell ref="A21:B28"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="C19:L20"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
     <mergeCell ref="K27:L28"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="A49:L55"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="I46:J47"/>
-    <mergeCell ref="K46:L47"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:L39"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:L41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:L13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
